--- a/Code/Results/Cases/Case_5_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003237321512422</v>
+        <v>1.053311405987383</v>
       </c>
       <c r="D2">
-        <v>1.023855809029615</v>
+        <v>1.057178970700205</v>
       </c>
       <c r="E2">
-        <v>1.008453518249623</v>
+        <v>1.049943734693129</v>
       </c>
       <c r="F2">
-        <v>1.027887476321155</v>
+        <v>1.065863333543117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044873443819643</v>
+        <v>1.042071305733028</v>
       </c>
       <c r="J2">
-        <v>1.025321634122481</v>
+        <v>1.058329415949933</v>
       </c>
       <c r="K2">
-        <v>1.034992505351622</v>
+        <v>1.059914650324083</v>
       </c>
       <c r="L2">
-        <v>1.019796325150131</v>
+        <v>1.05269938618668</v>
       </c>
       <c r="M2">
-        <v>1.038971499046534</v>
+        <v>1.06857542868013</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011396406111456</v>
+        <v>1.054917820275472</v>
       </c>
       <c r="D3">
-        <v>1.030203561524114</v>
+        <v>1.058435077303894</v>
       </c>
       <c r="E3">
-        <v>1.015303962933098</v>
+        <v>1.051334340832683</v>
       </c>
       <c r="F3">
-        <v>1.034797971783061</v>
+        <v>1.067255699464447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047305531772869</v>
+        <v>1.04245611558132</v>
       </c>
       <c r="J3">
-        <v>1.031581142401157</v>
+        <v>1.059583475054651</v>
       </c>
       <c r="K3">
-        <v>1.040464034419669</v>
+        <v>1.060983418105705</v>
       </c>
       <c r="L3">
-        <v>1.025744700999917</v>
+        <v>1.053900848627291</v>
       </c>
       <c r="M3">
-        <v>1.045004155023205</v>
+        <v>1.06978183564112</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01650945948193</v>
+        <v>1.055955591618639</v>
       </c>
       <c r="D4">
-        <v>1.034183983606756</v>
+        <v>1.059246162846329</v>
       </c>
       <c r="E4">
-        <v>1.01960288346815</v>
+        <v>1.052232808980301</v>
       </c>
       <c r="F4">
-        <v>1.03913425776756</v>
+        <v>1.068155191664532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0488167172811</v>
+        <v>1.042702974607754</v>
       </c>
       <c r="J4">
-        <v>1.035500076428378</v>
+        <v>1.060392890346863</v>
       </c>
       <c r="K4">
-        <v>1.04388662717377</v>
+        <v>1.061672727730932</v>
       </c>
       <c r="L4">
-        <v>1.029470338621028</v>
+        <v>1.054676404003348</v>
       </c>
       <c r="M4">
-        <v>1.04878224020422</v>
+        <v>1.070560469524717</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018621538347823</v>
+        <v>1.056391476454161</v>
       </c>
       <c r="D5">
-        <v>1.035828658978319</v>
+        <v>1.059586742742084</v>
       </c>
       <c r="E5">
-        <v>1.021379982219291</v>
+        <v>1.052610209725867</v>
       </c>
       <c r="F5">
-        <v>1.040926699378742</v>
+        <v>1.068532995243463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049437771862264</v>
+        <v>1.042806244618098</v>
       </c>
       <c r="J5">
-        <v>1.037117920845614</v>
+        <v>1.060732686084893</v>
       </c>
       <c r="K5">
-        <v>1.045298814678433</v>
+        <v>1.061961979698918</v>
       </c>
       <c r="L5">
-        <v>1.031008732041576</v>
+        <v>1.055002006159062</v>
       </c>
       <c r="M5">
-        <v>1.050342184059721</v>
+        <v>1.070887336739889</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018974035221941</v>
+        <v>1.056464640590526</v>
       </c>
       <c r="D6">
-        <v>1.036103171488813</v>
+        <v>1.059643904306204</v>
       </c>
       <c r="E6">
-        <v>1.021676646876689</v>
+        <v>1.052673558693221</v>
       </c>
       <c r="F6">
-        <v>1.041225918513223</v>
+        <v>1.068596410218491</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049541234020537</v>
+        <v>1.042823554300171</v>
       </c>
       <c r="J6">
-        <v>1.037387872638055</v>
+        <v>1.060789711198175</v>
       </c>
       <c r="K6">
-        <v>1.045534405547845</v>
+        <v>1.062010515247209</v>
       </c>
       <c r="L6">
-        <v>1.031265446816851</v>
+        <v>1.055056650506248</v>
       </c>
       <c r="M6">
-        <v>1.050602488059431</v>
+        <v>1.070942191781375</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01653782532879</v>
+        <v>1.055961417470589</v>
       </c>
       <c r="D7">
-        <v>1.034206070438907</v>
+        <v>1.059250715257258</v>
       </c>
       <c r="E7">
-        <v>1.019626745350676</v>
+        <v>1.0522378530574</v>
       </c>
       <c r="F7">
-        <v>1.039158326108595</v>
+        <v>1.068160241233356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048825070916964</v>
+        <v>1.04270435650572</v>
       </c>
       <c r="J7">
-        <v>1.035521808514639</v>
+        <v>1.060397432601119</v>
       </c>
       <c r="K7">
-        <v>1.043905599749489</v>
+        <v>1.061676594820012</v>
       </c>
       <c r="L7">
-        <v>1.029491002102834</v>
+        <v>1.05468075644121</v>
       </c>
       <c r="M7">
-        <v>1.04880319360073</v>
+        <v>1.070564838981128</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00603069235106</v>
+        <v>1.053854656027641</v>
       </c>
       <c r="D8">
-        <v>1.026028436358621</v>
+        <v>1.057603833537507</v>
       </c>
       <c r="E8">
-        <v>1.010797530280935</v>
+        <v>1.050413979811986</v>
       </c>
       <c r="F8">
-        <v>1.030252085949174</v>
+        <v>1.066334196986564</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045708785171541</v>
+        <v>1.04220179834801</v>
       </c>
       <c r="J8">
-        <v>1.027465391723943</v>
+        <v>1.058753658761088</v>
       </c>
       <c r="K8">
-        <v>1.036867010719686</v>
+        <v>1.060276315826143</v>
       </c>
       <c r="L8">
-        <v>1.021833201859352</v>
+        <v>1.053105817487065</v>
       </c>
       <c r="M8">
-        <v>1.041037291334878</v>
+        <v>1.068983555926171</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9861206850510635</v>
+        <v>1.050128935912557</v>
       </c>
       <c r="D9">
-        <v>1.010559905067213</v>
+        <v>1.054688514744176</v>
       </c>
       <c r="E9">
-        <v>0.9941213911578928</v>
+        <v>1.047189441071121</v>
       </c>
       <c r="F9">
-        <v>1.013429281678391</v>
+        <v>1.063104964945842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039702160535596</v>
+        <v>1.041299735161952</v>
       </c>
       <c r="J9">
-        <v>1.012173260859433</v>
+        <v>1.055841139911728</v>
       </c>
       <c r="K9">
-        <v>1.023483947384386</v>
+        <v>1.057791309623664</v>
       </c>
       <c r="L9">
-        <v>1.0073105702111</v>
+        <v>1.050315944357748</v>
       </c>
       <c r="M9">
-        <v>1.026308171825566</v>
+        <v>1.066181586151518</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9717165942470937</v>
+        <v>1.047635560798286</v>
       </c>
       <c r="D10">
-        <v>0.9993991219491746</v>
+        <v>1.052735620548486</v>
       </c>
       <c r="E10">
-        <v>0.9821034629270977</v>
+        <v>1.045032137921719</v>
       </c>
       <c r="F10">
-        <v>1.001307110692218</v>
+        <v>1.060943963682329</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035293319397892</v>
+        <v>1.040687113983103</v>
       </c>
       <c r="J10">
-        <v>1.001099116579215</v>
+        <v>1.053888269292959</v>
       </c>
       <c r="K10">
-        <v>1.013779233916487</v>
+        <v>1.056122471364847</v>
       </c>
       <c r="L10">
-        <v>0.9968035419640345</v>
+        <v>1.048445773111025</v>
       </c>
       <c r="M10">
-        <v>1.015652804888785</v>
+        <v>1.064302745382206</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9651595177472428</v>
+        <v>1.046553501044237</v>
       </c>
       <c r="D11">
-        <v>0.9943286325612067</v>
+        <v>1.051887687750232</v>
       </c>
       <c r="E11">
-        <v>0.9766461958853083</v>
+        <v>1.044096094475274</v>
       </c>
       <c r="F11">
-        <v>0.9958034510235385</v>
+        <v>1.060006186959753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033272849071275</v>
+        <v>1.040419139359406</v>
       </c>
       <c r="J11">
-        <v>0.9960571289321917</v>
+        <v>1.053039899970463</v>
       </c>
       <c r="K11">
-        <v>1.009358301001589</v>
+        <v>1.055396875304434</v>
       </c>
       <c r="L11">
-        <v>0.9920223913197983</v>
+        <v>1.047633441683091</v>
       </c>
       <c r="M11">
-        <v>1.010804944435043</v>
+        <v>1.063486518978062</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9626706304856795</v>
+        <v>1.046151201990267</v>
       </c>
       <c r="D12">
-        <v>0.9924058352849257</v>
+        <v>1.051572371780544</v>
       </c>
       <c r="E12">
-        <v>0.9745770521014239</v>
+        <v>1.043748109373133</v>
       </c>
       <c r="F12">
-        <v>0.9937169181090533</v>
+        <v>1.059657538469736</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03250406517508</v>
+        <v>1.040319192035509</v>
       </c>
       <c r="J12">
-        <v>0.9941433897881167</v>
+        <v>1.052724353919395</v>
       </c>
       <c r="K12">
-        <v>1.007679988214766</v>
+        <v>1.055126901805717</v>
       </c>
       <c r="L12">
-        <v>0.9902080797860634</v>
+        <v>1.047331316585569</v>
       </c>
       <c r="M12">
-        <v>1.008965490209314</v>
+        <v>1.063182926136689</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9632070095992923</v>
+        <v>1.046237513608036</v>
       </c>
       <c r="D13">
-        <v>0.9928201292140165</v>
+        <v>1.051640024362796</v>
       </c>
       <c r="E13">
-        <v>0.9750228650406888</v>
+        <v>1.043822766937196</v>
       </c>
       <c r="F13">
-        <v>0.9941664675770732</v>
+        <v>1.059732339214326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03266982710179</v>
+        <v>1.04034064966236</v>
       </c>
       <c r="J13">
-        <v>0.9945558130452766</v>
+        <v>1.052792058942384</v>
       </c>
       <c r="K13">
-        <v>1.008041688031081</v>
+        <v>1.055184832738346</v>
       </c>
       <c r="L13">
-        <v>0.9905990561062292</v>
+        <v>1.047396141181545</v>
       </c>
       <c r="M13">
-        <v>1.009361875997925</v>
+        <v>1.063248066514555</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9649549058197248</v>
+        <v>1.046520254573048</v>
       </c>
       <c r="D14">
-        <v>0.9941705202575988</v>
+        <v>1.051861630941608</v>
       </c>
       <c r="E14">
-        <v>0.9764760433144249</v>
+        <v>1.044067336026317</v>
       </c>
       <c r="F14">
-        <v>0.9956318640494061</v>
+        <v>1.059977374072732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033209684090101</v>
+        <v>1.040410886056707</v>
       </c>
       <c r="J14">
-        <v>0.995899797684579</v>
+        <v>1.053013825533894</v>
       </c>
       <c r="K14">
-        <v>1.009220330199704</v>
+        <v>1.05537456853189</v>
       </c>
       <c r="L14">
-        <v>0.9918732253864082</v>
+        <v>1.047608475912137</v>
       </c>
       <c r="M14">
-        <v>1.010653707553925</v>
+        <v>1.063461432309638</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9660246103571408</v>
+        <v>1.046694410723694</v>
       </c>
       <c r="D15">
-        <v>0.9949972020841787</v>
+        <v>1.051998122660779</v>
       </c>
       <c r="E15">
-        <v>0.9773656897857687</v>
+        <v>1.044217983506021</v>
       </c>
       <c r="F15">
-        <v>0.9965290188561743</v>
+        <v>1.060128305942427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033539833685029</v>
+        <v>1.040454106644991</v>
       </c>
       <c r="J15">
-        <v>0.9967223239870813</v>
+        <v>1.05315040681526</v>
       </c>
       <c r="K15">
-        <v>1.009941628439688</v>
+        <v>1.055491410526734</v>
       </c>
       <c r="L15">
-        <v>0.9926530809021286</v>
+        <v>1.047739250550269</v>
       </c>
       <c r="M15">
-        <v>1.01144439751327</v>
+        <v>1.063592839447354</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9721445956923346</v>
+        <v>1.047707321743474</v>
       </c>
       <c r="D16">
-        <v>0.999730322693646</v>
+        <v>1.052791845571244</v>
       </c>
       <c r="E16">
-        <v>0.9824599763760058</v>
+        <v>1.045094218897634</v>
       </c>
       <c r="F16">
-        <v>1.001666679158144</v>
+        <v>1.061006156931387</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035424936567269</v>
+        <v>1.040704841305752</v>
       </c>
       <c r="J16">
-        <v>1.001428221661324</v>
+        <v>1.05394451380433</v>
       </c>
       <c r="K16">
-        <v>1.01406775588723</v>
+        <v>1.056170563411529</v>
       </c>
       <c r="L16">
-        <v>0.9971156781183952</v>
+        <v>1.048499630766869</v>
       </c>
       <c r="M16">
-        <v>1.015969316789241</v>
+        <v>1.064356858581654</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9758943783703139</v>
+        <v>1.048342040231026</v>
       </c>
       <c r="D17">
-        <v>1.002633194297099</v>
+        <v>1.053289101166262</v>
       </c>
       <c r="E17">
-        <v>0.9855849949679849</v>
+        <v>1.045643338736225</v>
       </c>
       <c r="F17">
-        <v>1.004818588992987</v>
+        <v>1.061556255039519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036576555965022</v>
+        <v>1.040861393964888</v>
       </c>
       <c r="J17">
-        <v>1.004311490160807</v>
+        <v>1.05444189014093</v>
       </c>
       <c r="K17">
-        <v>1.016595211067154</v>
+        <v>1.056595775558404</v>
       </c>
       <c r="L17">
-        <v>0.99985058202512</v>
+        <v>1.048975912752993</v>
       </c>
       <c r="M17">
-        <v>1.018742655111763</v>
+        <v>1.064835385558805</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9780510779195161</v>
+        <v>1.04871202885899</v>
       </c>
       <c r="D18">
-        <v>1.004303720251546</v>
+        <v>1.053578918950358</v>
       </c>
       <c r="E18">
-        <v>0.9873836125791103</v>
+        <v>1.045963446695055</v>
       </c>
       <c r="F18">
-        <v>1.006632768224206</v>
+        <v>1.061876920856236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037237642374173</v>
+        <v>1.040952447643325</v>
       </c>
       <c r="J18">
-        <v>1.005969725605072</v>
+        <v>1.054731735303782</v>
       </c>
       <c r="K18">
-        <v>1.01804857709991</v>
+        <v>1.056843507771146</v>
       </c>
       <c r="L18">
-        <v>1.001423733908517</v>
+        <v>1.049253475950168</v>
       </c>
       <c r="M18">
-        <v>1.020337985264949</v>
+        <v>1.065114244601194</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9787814319605953</v>
+        <v>1.048838146427919</v>
       </c>
       <c r="D19">
-        <v>1.004869584021773</v>
+        <v>1.053677701739977</v>
       </c>
       <c r="E19">
-        <v>0.9879929100307402</v>
+        <v>1.046072564234804</v>
       </c>
       <c r="F19">
-        <v>1.007247349984536</v>
+        <v>1.061986226440728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037461295652816</v>
+        <v>1.04098345044593</v>
       </c>
       <c r="J19">
-        <v>1.006531258180988</v>
+        <v>1.054830520151985</v>
       </c>
       <c r="K19">
-        <v>1.018540692937191</v>
+        <v>1.056927929623324</v>
       </c>
       <c r="L19">
-        <v>1.001956495093924</v>
+        <v>1.049348076682767</v>
       </c>
       <c r="M19">
-        <v>1.020878267779746</v>
+        <v>1.065209284866954</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9754952506433673</v>
+        <v>1.048273965016968</v>
       </c>
       <c r="D20">
-        <v>1.002324113297148</v>
+        <v>1.053235773469267</v>
       </c>
       <c r="E20">
-        <v>0.9852522353206253</v>
+        <v>1.045584442507191</v>
       </c>
       <c r="F20">
-        <v>1.004482956748743</v>
+        <v>1.061497255168398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036454108500289</v>
+        <v>1.040844624348632</v>
       </c>
       <c r="J20">
-        <v>1.004004602126794</v>
+        <v>1.054388553948058</v>
       </c>
       <c r="K20">
-        <v>1.016326218710341</v>
+        <v>1.056550184041788</v>
       </c>
       <c r="L20">
-        <v>0.9995594599485574</v>
+        <v>1.04892483750356</v>
       </c>
       <c r="M20">
-        <v>1.018447434147601</v>
+        <v>1.064784070850358</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9644417111255904</v>
+        <v>1.046437004820018</v>
       </c>
       <c r="D21">
-        <v>0.9937739833297715</v>
+        <v>1.05179638321808</v>
       </c>
       <c r="E21">
-        <v>0.9760493150232434</v>
+        <v>1.043995324792653</v>
       </c>
       <c r="F21">
-        <v>0.9952015418383667</v>
+        <v>1.059905226219855</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033051228215517</v>
+        <v>1.040390214521884</v>
       </c>
       <c r="J21">
-        <v>0.9955051910440604</v>
+        <v>1.052948532572613</v>
       </c>
       <c r="K21">
-        <v>1.008874277393198</v>
+        <v>1.055318708684537</v>
       </c>
       <c r="L21">
-        <v>0.9914991053058185</v>
+        <v>1.047545959431716</v>
       </c>
       <c r="M21">
-        <v>1.010274396323779</v>
+        <v>1.063398612783785</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9571803492033258</v>
+        <v>1.045279866086901</v>
       </c>
       <c r="D22">
-        <v>0.9881680319925353</v>
+        <v>1.050889317909542</v>
       </c>
       <c r="E22">
-        <v>0.9700172171881462</v>
+        <v>1.042994461247337</v>
       </c>
       <c r="F22">
-        <v>0.989119205874329</v>
+        <v>1.058902419155566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030804927827372</v>
+        <v>1.040102137538739</v>
       </c>
       <c r="J22">
-        <v>0.9899221728603851</v>
+        <v>1.052040676980056</v>
       </c>
       <c r="K22">
-        <v>1.003977583803943</v>
+        <v>1.054541796123097</v>
       </c>
       <c r="L22">
-        <v>0.9862069937495108</v>
+        <v>1.046676749108442</v>
       </c>
       <c r="M22">
-        <v>1.004909339613392</v>
+        <v>1.062525144098509</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9610612280060951</v>
+        <v>1.045893496686763</v>
       </c>
       <c r="D23">
-        <v>0.9911630408394684</v>
+        <v>1.051370368650212</v>
       </c>
       <c r="E23">
-        <v>0.9732397489069312</v>
+        <v>1.043525204178383</v>
       </c>
       <c r="F23">
-        <v>0.9923684409116358</v>
+        <v>1.059434203019125</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032006436508969</v>
+        <v>1.04025507844012</v>
       </c>
       <c r="J23">
-        <v>0.9929059403691862</v>
+        <v>1.052522184236784</v>
       </c>
       <c r="K23">
-        <v>1.006594692474575</v>
+        <v>1.0549539044357</v>
       </c>
       <c r="L23">
-        <v>0.9890350451481102</v>
+        <v>1.047137750442718</v>
       </c>
       <c r="M23">
-        <v>1.007776255364399</v>
+        <v>1.062988414294825</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9756756931059427</v>
+        <v>1.048304725992696</v>
       </c>
       <c r="D24">
-        <v>1.002463843482935</v>
+        <v>1.053259870649297</v>
       </c>
       <c r="E24">
-        <v>0.9854026694261142</v>
+        <v>1.04561105574775</v>
       </c>
       <c r="F24">
-        <v>1.004634689241365</v>
+        <v>1.061523915279779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03650946998539</v>
+        <v>1.040852202622431</v>
       </c>
       <c r="J24">
-        <v>1.004143344039088</v>
+        <v>1.054412655099977</v>
       </c>
       <c r="K24">
-        <v>1.016447828983108</v>
+        <v>1.056570785772145</v>
       </c>
       <c r="L24">
-        <v>0.9996910734251776</v>
+        <v>1.048947916964447</v>
       </c>
       <c r="M24">
-        <v>1.018580900477007</v>
+        <v>1.064807258554575</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9914515673217974</v>
+        <v>1.051093765322707</v>
       </c>
       <c r="D25">
-        <v>1.014697369219349</v>
+        <v>1.055443812387914</v>
       </c>
       <c r="E25">
-        <v>0.9985792437972045</v>
+        <v>1.048024369385663</v>
       </c>
       <c r="F25">
-        <v>1.017926268259925</v>
+        <v>1.063941207962688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041321611833975</v>
+        <v>1.041534910598015</v>
       </c>
       <c r="J25">
-        <v>1.016270085310272</v>
+        <v>1.056596035352925</v>
       </c>
       <c r="K25">
-        <v>1.027071732711012</v>
+        <v>1.058435860021317</v>
       </c>
       <c r="L25">
-        <v>1.011199655286174</v>
+        <v>1.051038970107731</v>
       </c>
       <c r="M25">
-        <v>1.030252532594112</v>
+        <v>1.066907846690206</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_138/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053311405987383</v>
+        <v>1.003237321512421</v>
       </c>
       <c r="D2">
-        <v>1.057178970700205</v>
+        <v>1.023855809029614</v>
       </c>
       <c r="E2">
-        <v>1.049943734693129</v>
+        <v>1.008453518249622</v>
       </c>
       <c r="F2">
-        <v>1.065863333543117</v>
+        <v>1.027887476321155</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042071305733028</v>
+        <v>1.044873443819642</v>
       </c>
       <c r="J2">
-        <v>1.058329415949933</v>
+        <v>1.025321634122479</v>
       </c>
       <c r="K2">
-        <v>1.059914650324083</v>
+        <v>1.03499250535162</v>
       </c>
       <c r="L2">
-        <v>1.05269938618668</v>
+        <v>1.01979632515013</v>
       </c>
       <c r="M2">
-        <v>1.06857542868013</v>
+        <v>1.038971499046534</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054917820275472</v>
+        <v>1.011396406111458</v>
       </c>
       <c r="D3">
-        <v>1.058435077303894</v>
+        <v>1.030203561524116</v>
       </c>
       <c r="E3">
-        <v>1.051334340832683</v>
+        <v>1.015303962933099</v>
       </c>
       <c r="F3">
-        <v>1.067255699464447</v>
+        <v>1.034797971783063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04245611558132</v>
+        <v>1.04730553177287</v>
       </c>
       <c r="J3">
-        <v>1.059583475054651</v>
+        <v>1.031581142401159</v>
       </c>
       <c r="K3">
-        <v>1.060983418105705</v>
+        <v>1.040464034419671</v>
       </c>
       <c r="L3">
-        <v>1.053900848627291</v>
+        <v>1.025744700999918</v>
       </c>
       <c r="M3">
-        <v>1.06978183564112</v>
+        <v>1.045004155023207</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055955591618639</v>
+        <v>1.016509459481931</v>
       </c>
       <c r="D4">
-        <v>1.059246162846329</v>
+        <v>1.034183983606757</v>
       </c>
       <c r="E4">
-        <v>1.052232808980301</v>
+        <v>1.019602883468151</v>
       </c>
       <c r="F4">
-        <v>1.068155191664532</v>
+        <v>1.039134257767561</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042702974607754</v>
+        <v>1.048816717281101</v>
       </c>
       <c r="J4">
-        <v>1.060392890346863</v>
+        <v>1.03550007642838</v>
       </c>
       <c r="K4">
-        <v>1.061672727730932</v>
+        <v>1.043886627173771</v>
       </c>
       <c r="L4">
-        <v>1.054676404003348</v>
+        <v>1.02947033862103</v>
       </c>
       <c r="M4">
-        <v>1.070560469524717</v>
+        <v>1.048782240204222</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056391476454161</v>
+        <v>1.018621538347823</v>
       </c>
       <c r="D5">
-        <v>1.059586742742084</v>
+        <v>1.035828658978319</v>
       </c>
       <c r="E5">
-        <v>1.052610209725867</v>
+        <v>1.02137998221929</v>
       </c>
       <c r="F5">
-        <v>1.068532995243463</v>
+        <v>1.040926699378742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042806244618098</v>
+        <v>1.049437771862264</v>
       </c>
       <c r="J5">
-        <v>1.060732686084893</v>
+        <v>1.037117920845613</v>
       </c>
       <c r="K5">
-        <v>1.061961979698918</v>
+        <v>1.045298814678433</v>
       </c>
       <c r="L5">
-        <v>1.055002006159062</v>
+        <v>1.031008732041575</v>
       </c>
       <c r="M5">
-        <v>1.070887336739889</v>
+        <v>1.05034218405972</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056464640590526</v>
+        <v>1.018974035221941</v>
       </c>
       <c r="D6">
-        <v>1.059643904306204</v>
+        <v>1.036103171488813</v>
       </c>
       <c r="E6">
-        <v>1.052673558693221</v>
+        <v>1.021676646876688</v>
       </c>
       <c r="F6">
-        <v>1.068596410218491</v>
+        <v>1.041225918513222</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042823554300171</v>
+        <v>1.049541234020536</v>
       </c>
       <c r="J6">
-        <v>1.060789711198175</v>
+        <v>1.037387872638054</v>
       </c>
       <c r="K6">
-        <v>1.062010515247209</v>
+        <v>1.045534405547845</v>
       </c>
       <c r="L6">
-        <v>1.055056650506248</v>
+        <v>1.031265446816851</v>
       </c>
       <c r="M6">
-        <v>1.070942191781375</v>
+        <v>1.05060248805943</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055961417470589</v>
+        <v>1.016537825328788</v>
       </c>
       <c r="D7">
-        <v>1.059250715257258</v>
+        <v>1.034206070438906</v>
       </c>
       <c r="E7">
-        <v>1.0522378530574</v>
+        <v>1.019626745350676</v>
       </c>
       <c r="F7">
-        <v>1.068160241233356</v>
+        <v>1.039158326108593</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04270435650572</v>
+        <v>1.048825070916964</v>
       </c>
       <c r="J7">
-        <v>1.060397432601119</v>
+        <v>1.035521808514638</v>
       </c>
       <c r="K7">
-        <v>1.061676594820012</v>
+        <v>1.043905599749488</v>
       </c>
       <c r="L7">
-        <v>1.05468075644121</v>
+        <v>1.029491002102833</v>
       </c>
       <c r="M7">
-        <v>1.070564838981128</v>
+        <v>1.048803193600729</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053854656027641</v>
+        <v>1.006030692351058</v>
       </c>
       <c r="D8">
-        <v>1.057603833537507</v>
+        <v>1.02602843635862</v>
       </c>
       <c r="E8">
-        <v>1.050413979811986</v>
+        <v>1.010797530280933</v>
       </c>
       <c r="F8">
-        <v>1.066334196986564</v>
+        <v>1.030252085949172</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04220179834801</v>
+        <v>1.04570878517154</v>
       </c>
       <c r="J8">
-        <v>1.058753658761088</v>
+        <v>1.027465391723942</v>
       </c>
       <c r="K8">
-        <v>1.060276315826143</v>
+        <v>1.036867010719684</v>
       </c>
       <c r="L8">
-        <v>1.053105817487065</v>
+        <v>1.02183320185935</v>
       </c>
       <c r="M8">
-        <v>1.068983555926171</v>
+        <v>1.041037291334877</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050128935912557</v>
+        <v>0.9861206850510642</v>
       </c>
       <c r="D9">
-        <v>1.054688514744176</v>
+        <v>1.010559905067214</v>
       </c>
       <c r="E9">
-        <v>1.047189441071121</v>
+        <v>0.9941213911578936</v>
       </c>
       <c r="F9">
-        <v>1.063104964945842</v>
+        <v>1.013429281678392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041299735161952</v>
+        <v>1.039702160535596</v>
       </c>
       <c r="J9">
-        <v>1.055841139911728</v>
+        <v>1.012173260859434</v>
       </c>
       <c r="K9">
-        <v>1.057791309623664</v>
+        <v>1.023483947384387</v>
       </c>
       <c r="L9">
-        <v>1.050315944357748</v>
+        <v>1.007310570211101</v>
       </c>
       <c r="M9">
-        <v>1.066181586151518</v>
+        <v>1.026308171825566</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047635560798286</v>
+        <v>0.9717165942470934</v>
       </c>
       <c r="D10">
-        <v>1.052735620548486</v>
+        <v>0.9993991219491745</v>
       </c>
       <c r="E10">
-        <v>1.045032137921719</v>
+        <v>0.9821034629270978</v>
       </c>
       <c r="F10">
-        <v>1.060943963682329</v>
+        <v>1.001307110692218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040687113983103</v>
+        <v>1.035293319397892</v>
       </c>
       <c r="J10">
-        <v>1.053888269292959</v>
+        <v>1.001099116579215</v>
       </c>
       <c r="K10">
-        <v>1.056122471364847</v>
+        <v>1.013779233916487</v>
       </c>
       <c r="L10">
-        <v>1.048445773111025</v>
+        <v>0.9968035419640346</v>
       </c>
       <c r="M10">
-        <v>1.064302745382206</v>
+        <v>1.015652804888785</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046553501044237</v>
+        <v>0.9651595177472427</v>
       </c>
       <c r="D11">
-        <v>1.051887687750232</v>
+        <v>0.9943286325612065</v>
       </c>
       <c r="E11">
-        <v>1.044096094475274</v>
+        <v>0.9766461958853085</v>
       </c>
       <c r="F11">
-        <v>1.060006186959753</v>
+        <v>0.9958034510235384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040419139359406</v>
+        <v>1.033272849071275</v>
       </c>
       <c r="J11">
-        <v>1.053039899970463</v>
+        <v>0.9960571289321917</v>
       </c>
       <c r="K11">
-        <v>1.055396875304434</v>
+        <v>1.009358301001589</v>
       </c>
       <c r="L11">
-        <v>1.047633441683091</v>
+        <v>0.9920223913197982</v>
       </c>
       <c r="M11">
-        <v>1.063486518978062</v>
+        <v>1.010804944435043</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046151201990267</v>
+        <v>0.9626706304856798</v>
       </c>
       <c r="D12">
-        <v>1.051572371780544</v>
+        <v>0.9924058352849261</v>
       </c>
       <c r="E12">
-        <v>1.043748109373133</v>
+        <v>0.9745770521014241</v>
       </c>
       <c r="F12">
-        <v>1.059657538469736</v>
+        <v>0.9937169181090538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040319192035509</v>
+        <v>1.03250406517508</v>
       </c>
       <c r="J12">
-        <v>1.052724353919395</v>
+        <v>0.9941433897881172</v>
       </c>
       <c r="K12">
-        <v>1.055126901805717</v>
+        <v>1.007679988214766</v>
       </c>
       <c r="L12">
-        <v>1.047331316585569</v>
+        <v>0.9902080797860637</v>
       </c>
       <c r="M12">
-        <v>1.063182926136689</v>
+        <v>1.008965490209314</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046237513608036</v>
+        <v>0.963207009599292</v>
       </c>
       <c r="D13">
-        <v>1.051640024362796</v>
+        <v>0.9928201292140162</v>
       </c>
       <c r="E13">
-        <v>1.043822766937196</v>
+        <v>0.975022865040689</v>
       </c>
       <c r="F13">
-        <v>1.059732339214326</v>
+        <v>0.9941664675770727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04034064966236</v>
+        <v>1.03266982710179</v>
       </c>
       <c r="J13">
-        <v>1.052792058942384</v>
+        <v>0.9945558130452764</v>
       </c>
       <c r="K13">
-        <v>1.055184832738346</v>
+        <v>1.00804168803108</v>
       </c>
       <c r="L13">
-        <v>1.047396141181545</v>
+        <v>0.9905990561062293</v>
       </c>
       <c r="M13">
-        <v>1.063248066514555</v>
+        <v>1.009361875997925</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046520254573048</v>
+        <v>0.9649549058197242</v>
       </c>
       <c r="D14">
-        <v>1.051861630941608</v>
+        <v>0.9941705202575979</v>
       </c>
       <c r="E14">
-        <v>1.044067336026317</v>
+        <v>0.9764760433144245</v>
       </c>
       <c r="F14">
-        <v>1.059977374072732</v>
+        <v>0.9956318640494057</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040410886056707</v>
+        <v>1.0332096840901</v>
       </c>
       <c r="J14">
-        <v>1.053013825533894</v>
+        <v>0.9958997976845784</v>
       </c>
       <c r="K14">
-        <v>1.05537456853189</v>
+        <v>1.009220330199703</v>
       </c>
       <c r="L14">
-        <v>1.047608475912137</v>
+        <v>0.9918732253864077</v>
       </c>
       <c r="M14">
-        <v>1.063461432309638</v>
+        <v>1.010653707553925</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046694410723694</v>
+        <v>0.9660246103571406</v>
       </c>
       <c r="D15">
-        <v>1.051998122660779</v>
+        <v>0.9949972020841785</v>
       </c>
       <c r="E15">
-        <v>1.044217983506021</v>
+        <v>0.9773656897857683</v>
       </c>
       <c r="F15">
-        <v>1.060128305942427</v>
+        <v>0.9965290188561736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040454106644991</v>
+        <v>1.033539833685029</v>
       </c>
       <c r="J15">
-        <v>1.05315040681526</v>
+        <v>0.9967223239870809</v>
       </c>
       <c r="K15">
-        <v>1.055491410526734</v>
+        <v>1.009941628439688</v>
       </c>
       <c r="L15">
-        <v>1.047739250550269</v>
+        <v>0.9926530809021283</v>
       </c>
       <c r="M15">
-        <v>1.063592839447354</v>
+        <v>1.011444397513269</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047707321743474</v>
+        <v>0.9721445956923349</v>
       </c>
       <c r="D16">
-        <v>1.052791845571244</v>
+        <v>0.9997303226936465</v>
       </c>
       <c r="E16">
-        <v>1.045094218897634</v>
+        <v>0.9824599763760059</v>
       </c>
       <c r="F16">
-        <v>1.061006156931387</v>
+        <v>1.001666679158144</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040704841305752</v>
+        <v>1.035424936567269</v>
       </c>
       <c r="J16">
-        <v>1.05394451380433</v>
+        <v>1.001428221661324</v>
       </c>
       <c r="K16">
-        <v>1.056170563411529</v>
+        <v>1.01406775588723</v>
       </c>
       <c r="L16">
-        <v>1.048499630766869</v>
+        <v>0.9971156781183956</v>
       </c>
       <c r="M16">
-        <v>1.064356858581654</v>
+        <v>1.015969316789241</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048342040231026</v>
+        <v>0.9758943783703115</v>
       </c>
       <c r="D17">
-        <v>1.053289101166262</v>
+        <v>1.002633194297096</v>
       </c>
       <c r="E17">
-        <v>1.045643338736225</v>
+        <v>0.9855849949679826</v>
       </c>
       <c r="F17">
-        <v>1.061556255039519</v>
+        <v>1.004818588992985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040861393964888</v>
+        <v>1.036576555965021</v>
       </c>
       <c r="J17">
-        <v>1.05444189014093</v>
+        <v>1.004311490160805</v>
       </c>
       <c r="K17">
-        <v>1.056595775558404</v>
+        <v>1.016595211067152</v>
       </c>
       <c r="L17">
-        <v>1.048975912752993</v>
+        <v>0.9998505820251176</v>
       </c>
       <c r="M17">
-        <v>1.064835385558805</v>
+        <v>1.018742655111761</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04871202885899</v>
+        <v>0.9780510779195154</v>
       </c>
       <c r="D18">
-        <v>1.053578918950358</v>
+        <v>1.004303720251546</v>
       </c>
       <c r="E18">
-        <v>1.045963446695055</v>
+        <v>0.9873836125791097</v>
       </c>
       <c r="F18">
-        <v>1.061876920856236</v>
+        <v>1.006632768224206</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040952447643325</v>
+        <v>1.037237642374172</v>
       </c>
       <c r="J18">
-        <v>1.054731735303782</v>
+        <v>1.005969725605071</v>
       </c>
       <c r="K18">
-        <v>1.056843507771146</v>
+        <v>1.018048577099909</v>
       </c>
       <c r="L18">
-        <v>1.049253475950168</v>
+        <v>1.001423733908516</v>
       </c>
       <c r="M18">
-        <v>1.065114244601194</v>
+        <v>1.020337985264949</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048838146427919</v>
+        <v>0.9787814319605935</v>
       </c>
       <c r="D19">
-        <v>1.053677701739977</v>
+        <v>1.004869584021771</v>
       </c>
       <c r="E19">
-        <v>1.046072564234804</v>
+        <v>0.9879929100307386</v>
       </c>
       <c r="F19">
-        <v>1.061986226440728</v>
+        <v>1.007247349984534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04098345044593</v>
+        <v>1.037461295652814</v>
       </c>
       <c r="J19">
-        <v>1.054830520151985</v>
+        <v>1.006531258180986</v>
       </c>
       <c r="K19">
-        <v>1.056927929623324</v>
+        <v>1.01854069293719</v>
       </c>
       <c r="L19">
-        <v>1.049348076682767</v>
+        <v>1.001956495093923</v>
       </c>
       <c r="M19">
-        <v>1.065209284866954</v>
+        <v>1.020878267779744</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048273965016968</v>
+        <v>0.9754952506433681</v>
       </c>
       <c r="D20">
-        <v>1.053235773469267</v>
+        <v>1.002324113297149</v>
       </c>
       <c r="E20">
-        <v>1.045584442507191</v>
+        <v>0.9852522353206258</v>
       </c>
       <c r="F20">
-        <v>1.061497255168398</v>
+        <v>1.004482956748743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040844624348632</v>
+        <v>1.036454108500289</v>
       </c>
       <c r="J20">
-        <v>1.054388553948058</v>
+        <v>1.004004602126794</v>
       </c>
       <c r="K20">
-        <v>1.056550184041788</v>
+        <v>1.016326218710342</v>
       </c>
       <c r="L20">
-        <v>1.04892483750356</v>
+        <v>0.9995594599485579</v>
       </c>
       <c r="M20">
-        <v>1.064784070850358</v>
+        <v>1.018447434147602</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046437004820018</v>
+        <v>0.9644417111255909</v>
       </c>
       <c r="D21">
-        <v>1.05179638321808</v>
+        <v>0.9937739833297721</v>
       </c>
       <c r="E21">
-        <v>1.043995324792653</v>
+        <v>0.9760493150232441</v>
       </c>
       <c r="F21">
-        <v>1.059905226219855</v>
+        <v>0.9952015418383671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040390214521884</v>
+        <v>1.033051228215517</v>
       </c>
       <c r="J21">
-        <v>1.052948532572613</v>
+        <v>0.995505191044061</v>
       </c>
       <c r="K21">
-        <v>1.055318708684537</v>
+        <v>1.008874277393199</v>
       </c>
       <c r="L21">
-        <v>1.047545959431716</v>
+        <v>0.991499105305819</v>
       </c>
       <c r="M21">
-        <v>1.063398612783785</v>
+        <v>1.01027439632378</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045279866086901</v>
+        <v>0.957180349203326</v>
       </c>
       <c r="D22">
-        <v>1.050889317909542</v>
+        <v>0.9881680319925357</v>
       </c>
       <c r="E22">
-        <v>1.042994461247337</v>
+        <v>0.970017217188146</v>
       </c>
       <c r="F22">
-        <v>1.058902419155566</v>
+        <v>0.9891192058743292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040102137538739</v>
+        <v>1.030804927827372</v>
       </c>
       <c r="J22">
-        <v>1.052040676980056</v>
+        <v>0.9899221728603852</v>
       </c>
       <c r="K22">
-        <v>1.054541796123097</v>
+        <v>1.003977583803943</v>
       </c>
       <c r="L22">
-        <v>1.046676749108442</v>
+        <v>0.9862069937495106</v>
       </c>
       <c r="M22">
-        <v>1.062525144098509</v>
+        <v>1.004909339613393</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045893496686763</v>
+        <v>0.9610612280060959</v>
       </c>
       <c r="D23">
-        <v>1.051370368650212</v>
+        <v>0.9911630408394692</v>
       </c>
       <c r="E23">
-        <v>1.043525204178383</v>
+        <v>0.973239748906932</v>
       </c>
       <c r="F23">
-        <v>1.059434203019125</v>
+        <v>0.9923684409116369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04025507844012</v>
+        <v>1.03200643650897</v>
       </c>
       <c r="J23">
-        <v>1.052522184236784</v>
+        <v>0.9929059403691871</v>
       </c>
       <c r="K23">
-        <v>1.0549539044357</v>
+        <v>1.006594692474576</v>
       </c>
       <c r="L23">
-        <v>1.047137750442718</v>
+        <v>0.9890350451481111</v>
       </c>
       <c r="M23">
-        <v>1.062988414294825</v>
+        <v>1.007776255364401</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048304725992696</v>
+        <v>0.9756756931059422</v>
       </c>
       <c r="D24">
-        <v>1.053259870649297</v>
+        <v>1.002463843482934</v>
       </c>
       <c r="E24">
-        <v>1.04561105574775</v>
+        <v>0.9854026694261134</v>
       </c>
       <c r="F24">
-        <v>1.061523915279779</v>
+        <v>1.004634689241365</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040852202622431</v>
+        <v>1.03650946998539</v>
       </c>
       <c r="J24">
-        <v>1.054412655099977</v>
+        <v>1.004143344039087</v>
       </c>
       <c r="K24">
-        <v>1.056570785772145</v>
+        <v>1.016447828983108</v>
       </c>
       <c r="L24">
-        <v>1.048947916964447</v>
+        <v>0.9996910734251767</v>
       </c>
       <c r="M24">
-        <v>1.064807258554575</v>
+        <v>1.018580900477007</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051093765322707</v>
+        <v>0.9914515673217982</v>
       </c>
       <c r="D25">
-        <v>1.055443812387914</v>
+        <v>1.01469736921935</v>
       </c>
       <c r="E25">
-        <v>1.048024369385663</v>
+        <v>0.9985792437972052</v>
       </c>
       <c r="F25">
-        <v>1.063941207962688</v>
+        <v>1.017926268259926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041534910598015</v>
+        <v>1.041321611833975</v>
       </c>
       <c r="J25">
-        <v>1.056596035352925</v>
+        <v>1.016270085310272</v>
       </c>
       <c r="K25">
-        <v>1.058435860021317</v>
+        <v>1.027071732711013</v>
       </c>
       <c r="L25">
-        <v>1.051038970107731</v>
+        <v>1.011199655286174</v>
       </c>
       <c r="M25">
-        <v>1.066907846690206</v>
+        <v>1.030252532594113</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
